--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE433B4F-85EC-4193-B997-3EA36A96B6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B977C03-B043-477B-A1F1-B40190C2AFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>学工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,6 +117,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二级党委名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -268,12 +268,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,7 +593,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
     <col min="4" max="4" width="30.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="7" customWidth="1"/>
     <col min="6" max="6" width="26" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
@@ -627,52 +627,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,88 +684,88 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B977C03-B043-477B-A1F1-B40190C2AFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38243D5-3C19-45BB-A17C-3EAC3CF8CB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="3465" windowWidth="22320" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,36 +89,13 @@
     <t>组织关系转入时间</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、红色字段为必填，蓝色字段在已经提供的情况下为必填
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2、在没有提供分党委编号的情况下，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分党委起始编码必须填写
-3、导入党员信息之后，会导出一个文件，如果该文件中学工号为空，则需要手动填充，然后再重新导入。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级党委名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、红色字段为必填，学工号和身份证号必须填写其中一个
+2、二级党委名称和所在党支部需要填写全称；
+3、导入党员信息之后，会返回一个文件。如果其中学工号为空，则需要手动填写，再次进行导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -193,13 +170,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -269,7 +239,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -593,7 +563,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C7" sqref="C7:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,11 +596,11 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -689,7 +659,7 @@
     <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38243D5-3C19-45BB-A17C-3EAC3CF8CB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3465" windowWidth="22320" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="3465" windowWidth="22320" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,16 +92,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、红色字段为必填，学工号和身份证号必须填写其中一个
-2、二级党委名称和所在党支部需要填写全称；
-3、导入党员信息之后，会返回一个文件。如果其中学工号为空，则需要手动填写，再次进行导入</t>
+    <t>1、红色字段为必填，学工号和身份证号至少填写一个；
+2、二级党委名称和所在党支部需要填写全称（与系统内的名称保持一致）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +246,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{9D5CCFF5-4017-4DC7-8E25-E4AEBCAC46F1}"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +742,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0D975-AFD8-4F9D-8FEF-1C0159E28278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3465" windowWidth="22320" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,16 +93,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、红色字段为必填，学工号和身份证号至少填写一个；
-2、二级党委名称和所在党支部需要填写全称（与系统内的名称保持一致）；</t>
+    <t>1、红色字段为必填，学工号和身份证号必须填写其中一个
+2、二级党委名称和所在党支部需要填写全称；
+3、导入党员信息之后，会返回一个文件。如果其中学工号为空，则需要手动填写，再次进行导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党支部编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,6 +182,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -205,7 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,10 +257,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{9D5CCFF5-4017-4DC7-8E25-E4AEBCAC46F1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,23 +588,24 @@
     <col min="3" max="3" width="19.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9" style="7"/>
-    <col min="14" max="14" width="8.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9" style="7"/>
-    <col min="16" max="16" width="18.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="16.125" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="7"/>
+    <col min="6" max="6" width="24.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="15" width="8.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="18.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="7" customWidth="1"/>
+    <col min="19" max="20" width="16.125" style="7" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -603,58 +621,61 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
         <v>18</v>
@@ -662,87 +683,95 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G20" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="8:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="8:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="8:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="8:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="C7:F14"/>
+    <mergeCell ref="C7:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0D975-AFD8-4F9D-8FEF-1C0159E28278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A24FAD-8BEF-4B73-8288-89A2216B1D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>党支部编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党委编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,11 +258,11 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,26 +590,26 @@
     <col min="1" max="1" width="22.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="8.625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="18.875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="16.125" style="7" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="7"/>
+    <col min="4" max="5" width="30.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9" style="7"/>
+    <col min="16" max="16" width="8.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="18.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="7" customWidth="1"/>
+    <col min="20" max="21" width="16.125" style="7" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -618,160 +622,173 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="9"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="8:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="8:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="8:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="8:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H20" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="9:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="9:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="9:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="9:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I20" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="C7:G14"/>
+    <mergeCell ref="C7:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip.hit\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A24FAD-8BEF-4B73-8288-89A2216B1D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CC0E0-71F2-4235-B4E1-7CC9345931B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,34 @@
   </si>
   <si>
     <t>二级党委编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入系统方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,11 +633,11 @@
     <col min="17" max="17" width="9" style="7"/>
     <col min="18" max="18" width="18.875" style="7" customWidth="1"/>
     <col min="19" max="19" width="15.625" style="7" customWidth="1"/>
-    <col min="20" max="21" width="16.125" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="20" max="22" width="16.125" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -670,21 +698,42 @@
       <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="13" t="s">
         <v>18</v>
@@ -696,7 +745,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -706,7 +755,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -716,7 +765,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -726,7 +775,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -736,7 +785,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -745,7 +794,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -754,7 +803,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -763,10 +812,10 @@
       <c r="H14" s="13"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="9:9" ht="18" x14ac:dyDescent="0.2">

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip.hit\doc\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ly040\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CC0E0-71F2-4235-B4E1-7CC9345931B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE835FE-5AA2-4EF4-9D57-A57889210ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>来源</t>
+  </si>
+  <si>
     <t>备注1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +131,6 @@
   </si>
   <si>
     <t>备注6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入系统方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -227,16 +226,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,6 +254,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -251,7 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +316,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,8 +661,8 @@
     <col min="17" max="17" width="9" style="7"/>
     <col min="18" max="18" width="18.875" style="7" customWidth="1"/>
     <col min="19" max="19" width="15.625" style="7" customWidth="1"/>
-    <col min="20" max="22" width="16.125" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="7"/>
+    <col min="20" max="21" width="16.125" style="7" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -698,26 +726,26 @@
       <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ly040\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE835FE-5AA2-4EF4-9D57-A57889210ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C51CA-CC2B-4776-A9D8-E040D2017171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,44 +93,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>党支部编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党委编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、红色字段为必填，学工号和身份证号必须填写其中一个
-2、二级党委名称和所在党支部需要填写全称；
+2、二级党委名称和所在党支部需要填写全称，如果是二次导入，需要与系统中的命成保持一致；
 3、导入党员信息之后，会返回一个文件。如果其中学工号为空，则需要手动填写，再次进行导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党支部编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级党委编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,6 +230,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -314,11 +315,11 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,13 +680,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -726,26 +727,26 @@
       <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -763,81 +764,81 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.2">

--- a/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一张表导入样表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C51CA-CC2B-4776-A9D8-E040D2017171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607638D-83EF-46C0-A7BB-401E8FAB43DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,18 +113,6 @@
   </si>
   <si>
     <t>备注3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -636,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,7 +654,7 @@
     <col min="22" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -739,33 +727,24 @@
       <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -774,7 +753,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -784,7 +763,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -794,7 +773,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -804,7 +783,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -814,7 +793,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -823,7 +802,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -832,7 +811,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -841,10 +820,10 @@
       <c r="H14" s="14"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="9:9" ht="18" x14ac:dyDescent="0.2">
